--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="I38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K38" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2617,11 +2617,11 @@
         </is>
       </c>
       <c r="I42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K42" s="2" t="b">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2669,11 +2669,11 @@
         </is>
       </c>
       <c r="I43" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2721,11 +2721,11 @@
         </is>
       </c>
       <c r="I44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K44" s="2" t="b">
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G187" s="2" t="b">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G188" s="2" t="b">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G189" s="2" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="I38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K38" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2617,11 +2617,11 @@
         </is>
       </c>
       <c r="I42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K42" s="2" t="b">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2669,11 +2669,11 @@
         </is>
       </c>
       <c r="I43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2721,11 +2721,11 @@
         </is>
       </c>
       <c r="I44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K44" s="2" t="b">
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G187" s="2" t="b">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G188" s="2" t="b">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G189" s="2" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
